--- a/Excel/PlayerLevelConfig.xlsx
+++ b/Excel/PlayerLevelConfig.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7AD02D-8CE5-49E9-B7CB-9E485B76C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -37,32 +19,41 @@
     <t>Id</t>
   </si>
   <si>
+    <t>所需经验值</t>
+  </si>
+  <si>
+    <t>NeedExp</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedExp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需经验值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -78,29 +69,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +233,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,34 +428,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,297 +1028,457 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="D30:D35 D6:D28"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.62727272727273" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="3" ht="13.5" spans="3:4">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="3:4">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="3:4">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
       <c r="D7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="5">
         <v>9</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5">
         <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="5">
         <v>14</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="5">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="5">
         <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="5">
         <v>17</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="5">
         <v>18</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="5">
         <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="5">
         <v>20</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="5">
         <v>21</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="5">
         <v>22</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="5">
         <v>23</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="5">
         <v>24</v>
       </c>
       <c r="D29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="5">
         <v>25</v>
       </c>
       <c r="D30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5">
         <v>26</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="5">
         <v>27</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="5">
         <v>28</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="5">
         <v>29</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="5">
         <v>30</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="5">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="5">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="5">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="5">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="5">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="5">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="5">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="5">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="5">
+        <v>39</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="5">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="5">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="5">
+        <v>42</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="5">
+        <v>43</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="5">
+        <v>44</v>
+      </c>
+      <c r="D49" s="6">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="5">
+        <v>45</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="5">
+        <v>46</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="5">
+        <v>47</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="5">
+        <v>48</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="5">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="5">
+        <v>50</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/PlayerLevelConfig.xlsx
+++ b/Excel/PlayerLevelConfig.xlsx
@@ -41,7 +41,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,19 +50,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -532,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,146 +531,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="C3:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1048,432 +1033,436 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2"/>
-    </row>
     <row r="3" ht="13.5" spans="3:4">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="3:4">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="3:4">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>700</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>900</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1100</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="5">
+    <row r="18" spans="3:4">
+      <c r="C18" s="3">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>1300</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>1400</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>1500</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>16</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>17</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>1700</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>1800</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>1900</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>2100</v>
       </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>22</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2200</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>2300</v>
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>24</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>2400</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>25</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>2500</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>26</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>2600</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>27</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>2700</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>2800</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>29</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>2900</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>30</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>3000</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>31</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>3100</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>32</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>3200</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>33</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>3300</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>34</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>3400</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>35</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>3500</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>36</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>3600</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>37</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>3700</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>38</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>3800</v>
       </c>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>39</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>3900</v>
       </c>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>40</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>4000</v>
       </c>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>41</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>4100</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>42</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>4200</v>
       </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>43</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>4300</v>
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>44</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>4400</v>
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>45</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>4500</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>46</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>4600</v>
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>47</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>4700</v>
       </c>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>48</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>4800</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>49</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>4900</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>50</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="3">
+        <v>51</v>
+      </c>
+      <c r="D56" s="4">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>
